--- a/data/pca/factorExposure/factorExposure_2017-05-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-05-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02327319167529298</v>
+        <v>-0.01061108517742544</v>
       </c>
       <c r="C2">
-        <v>0.006238672601136493</v>
+        <v>0.04449810784058975</v>
       </c>
       <c r="D2">
-        <v>0.03639390533906732</v>
+        <v>-0.0298390343143081</v>
       </c>
       <c r="E2">
-        <v>-0.009547769301559211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03337122463114225</v>
+      </c>
+      <c r="F2">
+        <v>0.00983222716982635</v>
+      </c>
+      <c r="G2">
+        <v>-0.09821709434287562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01783645900690381</v>
+        <v>-0.04405163365937233</v>
       </c>
       <c r="C3">
-        <v>-0.01983947656247133</v>
+        <v>0.1030053659829366</v>
       </c>
       <c r="D3">
-        <v>0.1125549916872099</v>
+        <v>-0.01814483633800643</v>
       </c>
       <c r="E3">
-        <v>-0.05048228672051496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.1007593072512926</v>
+      </c>
+      <c r="F3">
+        <v>0.007213009428115816</v>
+      </c>
+      <c r="G3">
+        <v>-0.1948812981199665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0251745598734461</v>
+        <v>-0.05568512521525709</v>
       </c>
       <c r="C4">
-        <v>-0.002946503392842239</v>
+        <v>0.06819157085085907</v>
       </c>
       <c r="D4">
-        <v>0.0887569792963024</v>
+        <v>-0.02453962245091048</v>
       </c>
       <c r="E4">
-        <v>0.006628004236631365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.0281268884509324</v>
+      </c>
+      <c r="F4">
+        <v>0.01060826116893762</v>
+      </c>
+      <c r="G4">
+        <v>-0.09852687604896085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01226962437041708</v>
+        <v>-0.03660921405964752</v>
       </c>
       <c r="C6">
-        <v>0.01466947291318538</v>
+        <v>0.0527545543943724</v>
       </c>
       <c r="D6">
-        <v>0.08020866549415306</v>
+        <v>-0.01693418238293078</v>
       </c>
       <c r="E6">
-        <v>0.007069423413632658</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.03223265799922581</v>
+      </c>
+      <c r="F6">
+        <v>0.01098443953372173</v>
+      </c>
+      <c r="G6">
+        <v>-0.07960562281859594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01180107364349831</v>
+        <v>-0.02103167275922083</v>
       </c>
       <c r="C7">
-        <v>-0.0009781876602967326</v>
+        <v>0.04195941038658847</v>
       </c>
       <c r="D7">
-        <v>0.04621527712123048</v>
+        <v>-0.01350723236663203</v>
       </c>
       <c r="E7">
-        <v>0.04168942594474916</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.003554956056565049</v>
+      </c>
+      <c r="F7">
+        <v>-0.004548221586281753</v>
+      </c>
+      <c r="G7">
+        <v>-0.1276720154763235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0001231004620249941</v>
+        <v>-0.00359244871072536</v>
       </c>
       <c r="C8">
-        <v>0.002448221845523222</v>
+        <v>0.02527117184161182</v>
       </c>
       <c r="D8">
-        <v>0.006627712631812286</v>
+        <v>-0.004007529371218181</v>
       </c>
       <c r="E8">
-        <v>0.001507753569707368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02434990123619044</v>
+      </c>
+      <c r="F8">
+        <v>0.006376105293903725</v>
+      </c>
+      <c r="G8">
+        <v>-0.06941494352746712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01734397370222254</v>
+        <v>-0.03353762283649549</v>
       </c>
       <c r="C9">
-        <v>-0.006244501267378195</v>
+        <v>0.04958878920011026</v>
       </c>
       <c r="D9">
-        <v>0.06462043662991095</v>
+        <v>-0.01658241859281684</v>
       </c>
       <c r="E9">
-        <v>-0.0001973075914019163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01740319536082001</v>
+      </c>
+      <c r="F9">
+        <v>0.007482461895899332</v>
+      </c>
+      <c r="G9">
+        <v>-0.0971225829410821</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.04527879312519944</v>
+        <v>-0.09863928062006999</v>
       </c>
       <c r="C10">
-        <v>-0.1808905837420169</v>
+        <v>-0.1809902875486579</v>
       </c>
       <c r="D10">
-        <v>-0.08602944173496073</v>
+        <v>0.01491061118874488</v>
       </c>
       <c r="E10">
-        <v>-0.02996344613436102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02104146720229205</v>
+      </c>
+      <c r="F10">
+        <v>-0.02323426877474204</v>
+      </c>
+      <c r="G10">
+        <v>-0.06220368710099634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0002067436336699574</v>
+        <v>-0.0351364591264272</v>
       </c>
       <c r="C11">
-        <v>0.003735525657725534</v>
+        <v>0.05477351928433995</v>
       </c>
       <c r="D11">
-        <v>0.05816882938760171</v>
+        <v>-0.00226410014918237</v>
       </c>
       <c r="E11">
-        <v>-0.002701115663671296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.01036289096207937</v>
+      </c>
+      <c r="F11">
+        <v>0.02128155994964615</v>
+      </c>
+      <c r="G11">
+        <v>-0.08720317248474817</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.005219925087553448</v>
+        <v>-0.03670290533392067</v>
       </c>
       <c r="C12">
-        <v>0.002606826994820853</v>
+        <v>0.04946533419052508</v>
       </c>
       <c r="D12">
-        <v>0.05231850573959968</v>
+        <v>-0.006236759301383891</v>
       </c>
       <c r="E12">
-        <v>0.01243690941325842</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.003026225058121223</v>
+      </c>
+      <c r="F12">
+        <v>0.001870425704146853</v>
+      </c>
+      <c r="G12">
+        <v>-0.08168636798843838</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02447294381498271</v>
+        <v>-0.01657998723867282</v>
       </c>
       <c r="C13">
-        <v>-0.006754859632924476</v>
+        <v>0.04176483367704692</v>
       </c>
       <c r="D13">
-        <v>0.03952480416024867</v>
+        <v>-0.02630883985878073</v>
       </c>
       <c r="E13">
-        <v>-0.02055801224212906</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.03086683973868608</v>
+      </c>
+      <c r="F13">
+        <v>0.006203342094824412</v>
+      </c>
+      <c r="G13">
+        <v>-0.1248252269076086</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009509699168499537</v>
+        <v>-0.008997552442463677</v>
       </c>
       <c r="C14">
-        <v>-0.007874705053730505</v>
+        <v>0.02984843213234934</v>
       </c>
       <c r="D14">
-        <v>0.02179519868955315</v>
+        <v>-0.009960737666503188</v>
       </c>
       <c r="E14">
-        <v>-0.001363278453695259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.003412295365443941</v>
+      </c>
+      <c r="F14">
+        <v>-0.00859015695080205</v>
+      </c>
+      <c r="G14">
+        <v>-0.1017643941229405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001965318257340518</v>
+        <v>-0.03362223660528523</v>
       </c>
       <c r="C16">
-        <v>-0.003934110152137721</v>
+        <v>0.04799753218828692</v>
       </c>
       <c r="D16">
-        <v>0.04917847737523454</v>
+        <v>-0.001842866040822272</v>
       </c>
       <c r="E16">
-        <v>0.008585924604155786</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.009625966831601713</v>
+      </c>
+      <c r="F16">
+        <v>0.003328172037243845</v>
+      </c>
+      <c r="G16">
+        <v>-0.09037251161142487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01363551290846415</v>
+        <v>-0.02177213745723882</v>
       </c>
       <c r="C19">
-        <v>1.691968232809989e-05</v>
+        <v>0.05492965813213202</v>
       </c>
       <c r="D19">
-        <v>0.05158951292828536</v>
+        <v>-0.01897150039141628</v>
       </c>
       <c r="E19">
-        <v>-0.0003454982078312922</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06951592218157657</v>
+      </c>
+      <c r="F19">
+        <v>0.01980029998159225</v>
+      </c>
+      <c r="G19">
+        <v>-0.1337527070400231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01078381051243908</v>
+        <v>-0.01554395597940655</v>
       </c>
       <c r="C20">
-        <v>0.001292142786909598</v>
+        <v>0.04077477477788672</v>
       </c>
       <c r="D20">
-        <v>0.03796446424841635</v>
+        <v>-0.0141121198007155</v>
       </c>
       <c r="E20">
-        <v>-0.02713520216607023</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02995571018130562</v>
+      </c>
+      <c r="F20">
+        <v>-0.0133549507711328</v>
+      </c>
+      <c r="G20">
+        <v>-0.1078856528730382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01491068629309204</v>
+        <v>-0.0129988918506513</v>
       </c>
       <c r="C21">
-        <v>-0.003968807523768947</v>
+        <v>0.04113030109612521</v>
       </c>
       <c r="D21">
-        <v>0.04160077021154151</v>
+        <v>-0.01885180822494789</v>
       </c>
       <c r="E21">
-        <v>-0.007558776084376685</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.04267108673334054</v>
+      </c>
+      <c r="F21">
+        <v>0.002582660881562678</v>
+      </c>
+      <c r="G21">
+        <v>-0.1325375869959243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0009082296113125155</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0001969758232161766</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-0.0003833410090554542</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.001462327104180697</v>
+      </c>
+      <c r="F22">
+        <v>0.0008745830371176532</v>
+      </c>
+      <c r="G22">
+        <v>-0.003407304784534359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0009125761685460375</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0001966170852765728</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-0.0003834730980810838</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.001468046863109111</v>
+      </c>
+      <c r="F23">
+        <v>0.0008730845584839336</v>
+      </c>
+      <c r="G23">
+        <v>-0.003419758887238087</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.003068475658434533</v>
+        <v>-0.02914187356198921</v>
       </c>
       <c r="C24">
-        <v>0.009347563351235646</v>
+        <v>0.05215243572635082</v>
       </c>
       <c r="D24">
-        <v>0.05184148154111679</v>
+        <v>-0.007036589091162703</v>
       </c>
       <c r="E24">
-        <v>0.006661814673854855</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.006040953037664926</v>
+      </c>
+      <c r="F24">
+        <v>0.01261331420435767</v>
+      </c>
+      <c r="G24">
+        <v>-0.08768448712975291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.0128282340631356</v>
+        <v>-0.04354832253746429</v>
       </c>
       <c r="C25">
-        <v>-0.005332057844966062</v>
+        <v>0.05937896292911674</v>
       </c>
       <c r="D25">
-        <v>0.0625855129795443</v>
+        <v>-0.01104264409517083</v>
       </c>
       <c r="E25">
-        <v>0.009943518743016501</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.001311105742840176</v>
+      </c>
+      <c r="F25">
+        <v>0.006007475974090613</v>
+      </c>
+      <c r="G25">
+        <v>-0.09804568767165027</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02311846997509925</v>
+        <v>-0.01433112939487744</v>
       </c>
       <c r="C26">
-        <v>-0.0008065051850592136</v>
+        <v>0.01191251728094526</v>
       </c>
       <c r="D26">
-        <v>0.005238389852541641</v>
+        <v>-0.02404931565266484</v>
       </c>
       <c r="E26">
-        <v>0.004705851755813088</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.007573260349189887</v>
+      </c>
+      <c r="F26">
+        <v>-0.008399239666448326</v>
+      </c>
+      <c r="G26">
+        <v>-0.08139727486993344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.07495349902258805</v>
+        <v>-0.1249758397860967</v>
       </c>
       <c r="C28">
-        <v>-0.2416447328540634</v>
+        <v>-0.2373729644720244</v>
       </c>
       <c r="D28">
-        <v>-0.1062943673401305</v>
+        <v>0.005829769823715345</v>
       </c>
       <c r="E28">
-        <v>0.001837704630291877</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.006232677920562532</v>
+      </c>
+      <c r="F28">
+        <v>-0.01628977039040821</v>
+      </c>
+      <c r="G28">
+        <v>-0.0558223495464001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01064757158183197</v>
+        <v>-0.009790664054044681</v>
       </c>
       <c r="C29">
-        <v>-0.01288428554177563</v>
+        <v>0.02347663428999629</v>
       </c>
       <c r="D29">
-        <v>0.02277610414760142</v>
+        <v>-0.009008451850925617</v>
       </c>
       <c r="E29">
-        <v>-0.003515210404773649</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.001792587096946136</v>
+      </c>
+      <c r="F29">
+        <v>-0.01722866360514154</v>
+      </c>
+      <c r="G29">
+        <v>-0.09490985940469397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02192567488094259</v>
+        <v>-0.04167126283893389</v>
       </c>
       <c r="C30">
-        <v>0.01652222127674132</v>
+        <v>0.06968648291350765</v>
       </c>
       <c r="D30">
-        <v>0.09888869341438475</v>
+        <v>-0.02885269671575531</v>
       </c>
       <c r="E30">
-        <v>-0.03554241317480201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05358946082960304</v>
+      </c>
+      <c r="F30">
+        <v>0.04583454465110628</v>
+      </c>
+      <c r="G30">
+        <v>-0.1115183638565323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01241981992325391</v>
+        <v>-0.05369165957804724</v>
       </c>
       <c r="C31">
-        <v>-0.02565534702622202</v>
+        <v>0.03815960762429769</v>
       </c>
       <c r="D31">
-        <v>0.04182690021404711</v>
+        <v>-0.003643464435921824</v>
       </c>
       <c r="E31">
-        <v>0.001123313730193925</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.001794632631201347</v>
+      </c>
+      <c r="F31">
+        <v>-0.04169291042379397</v>
+      </c>
+      <c r="G31">
+        <v>-0.09572988401101246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.00346710893333619</v>
+        <v>-0.002093994405142582</v>
       </c>
       <c r="C32">
-        <v>-0.0178928522338987</v>
+        <v>0.02580586629433457</v>
       </c>
       <c r="D32">
-        <v>0.01182454939324823</v>
+        <v>0.003455667767284683</v>
       </c>
       <c r="E32">
-        <v>0.03730070436466875</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.02003837503677285</v>
+      </c>
+      <c r="F32">
+        <v>0.03809562574488049</v>
+      </c>
+      <c r="G32">
+        <v>-0.09149947006780887</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01322499895942265</v>
+        <v>-0.02837865466973695</v>
       </c>
       <c r="C33">
-        <v>-0.004354368406305176</v>
+        <v>0.05097402744797994</v>
       </c>
       <c r="D33">
-        <v>0.0456210245234469</v>
+        <v>-0.01570429723565226</v>
       </c>
       <c r="E33">
-        <v>-0.02280424366653603</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03697682373018783</v>
+      </c>
+      <c r="F33">
+        <v>0.01670182704558958</v>
+      </c>
+      <c r="G33">
+        <v>-0.1505652566531054</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.00215210600891836</v>
+        <v>-0.04110963729952249</v>
       </c>
       <c r="C34">
-        <v>-0.01188008911321483</v>
+        <v>0.061642982760639</v>
       </c>
       <c r="D34">
-        <v>0.06187636710278616</v>
+        <v>0.00482755545832288</v>
       </c>
       <c r="E34">
-        <v>0.02037559597280009</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.0002805815859708812</v>
+      </c>
+      <c r="F34">
+        <v>0.02022814565954511</v>
+      </c>
+      <c r="G34">
+        <v>-0.09485976646235338</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01418402387058847</v>
+        <v>-0.01649015522257614</v>
       </c>
       <c r="C36">
-        <v>-0.01162685981528291</v>
+        <v>0.009949449581094293</v>
       </c>
       <c r="D36">
-        <v>0.008853644515000918</v>
+        <v>-0.01230697006098115</v>
       </c>
       <c r="E36">
-        <v>0.003195223156302029</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.004630768905429261</v>
+      </c>
+      <c r="F36">
+        <v>-0.007178135957475661</v>
+      </c>
+      <c r="G36">
+        <v>-0.0881206903494043</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>3.166459579639728e-05</v>
+        <v>-0.0320807893654609</v>
       </c>
       <c r="C38">
-        <v>-0.02483232631762447</v>
+        <v>0.03178687186748193</v>
       </c>
       <c r="D38">
-        <v>0.05257581034420546</v>
+        <v>0.007528442808709535</v>
       </c>
       <c r="E38">
-        <v>0.006201454451633736</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.003402056646280717</v>
+      </c>
+      <c r="F38">
+        <v>-0.02011589068477945</v>
+      </c>
+      <c r="G38">
+        <v>-0.08320028027248989</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.0003984567186251278</v>
+        <v>-0.03686233254744772</v>
       </c>
       <c r="C39">
-        <v>0.03357833912002189</v>
+        <v>0.08202357243381536</v>
       </c>
       <c r="D39">
-        <v>0.1016458740406184</v>
+        <v>-0.01154282681662387</v>
       </c>
       <c r="E39">
-        <v>-0.01379062244022253</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.0216476451118102</v>
+      </c>
+      <c r="F39">
+        <v>0.02409369860394614</v>
+      </c>
+      <c r="G39">
+        <v>-0.08591528034295402</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01293822780079218</v>
+        <v>-0.01496181551014783</v>
       </c>
       <c r="C40">
-        <v>-0.006002223766013247</v>
+        <v>0.04301911278434193</v>
       </c>
       <c r="D40">
-        <v>0.04419743043436625</v>
+        <v>-0.01478874754389071</v>
       </c>
       <c r="E40">
-        <v>0.01174996171679543</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02035513465264182</v>
+      </c>
+      <c r="F40">
+        <v>-0.01642601636118139</v>
+      </c>
+      <c r="G40">
+        <v>-0.1234096570638325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.008802042565427451</v>
+        <v>-0.02090689489146111</v>
       </c>
       <c r="C41">
-        <v>-0.02008535600957287</v>
+        <v>0.002667924662546108</v>
       </c>
       <c r="D41">
-        <v>-0.008412640399245665</v>
+        <v>-0.004192950035767115</v>
       </c>
       <c r="E41">
-        <v>0.009024375929167744</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.003171825098751736</v>
+      </c>
+      <c r="F41">
+        <v>-0.01573583019486523</v>
+      </c>
+      <c r="G41">
+        <v>-0.0773013311825501</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.08616392188693207</v>
+        <v>-0.009341993988826675</v>
       </c>
       <c r="C42">
-        <v>0.0458767264472266</v>
+        <v>0.0307453223817258</v>
       </c>
       <c r="D42">
-        <v>0.1400283191724442</v>
+        <v>-0.09040239319683918</v>
       </c>
       <c r="E42">
-        <v>-0.3047041893217557</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.01790591329610991</v>
+      </c>
+      <c r="F42">
+        <v>-0.03683543409301748</v>
+      </c>
+      <c r="G42">
+        <v>0.09889252888088955</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01002577185149374</v>
+        <v>-0.03479492288794662</v>
       </c>
       <c r="C43">
-        <v>-0.02160034608883332</v>
+        <v>0.01889680146690134</v>
       </c>
       <c r="D43">
-        <v>-0.002091472129991011</v>
+        <v>-0.005969598105534708</v>
       </c>
       <c r="E43">
-        <v>0.01199064568664851</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01743077515749824</v>
+      </c>
+      <c r="F43">
+        <v>-0.005288742963731203</v>
+      </c>
+      <c r="G43">
+        <v>-0.1136791193927572</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002246157164712069</v>
+        <v>-0.01323456805022434</v>
       </c>
       <c r="C44">
-        <v>0.004607813155770857</v>
+        <v>0.06018878855306174</v>
       </c>
       <c r="D44">
-        <v>0.05781276211678162</v>
+        <v>-0.006769156057210147</v>
       </c>
       <c r="E44">
-        <v>0.008315522049883447</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01872513252468107</v>
+      </c>
+      <c r="F44">
+        <v>-0.008780809830666451</v>
+      </c>
+      <c r="G44">
+        <v>-0.1027306396395543</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01166393800322219</v>
+        <v>-0.00790166822727178</v>
       </c>
       <c r="C46">
-        <v>-0.005631348847807205</v>
+        <v>0.01811256918022899</v>
       </c>
       <c r="D46">
-        <v>0.008718347459622192</v>
+        <v>-0.01268696872493821</v>
       </c>
       <c r="E46">
-        <v>-0.00918258563282635</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.00178683486398811</v>
+      </c>
+      <c r="F46">
+        <v>-0.01649647057772709</v>
+      </c>
+      <c r="G46">
+        <v>-0.09841348262347156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.007832061611084736</v>
+        <v>-0.07779846220021035</v>
       </c>
       <c r="C47">
-        <v>-0.032685772690129</v>
+        <v>0.06732071318464608</v>
       </c>
       <c r="D47">
-        <v>0.07904364128260567</v>
+        <v>0.005121662112622337</v>
       </c>
       <c r="E47">
-        <v>0.0131843303496059</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.006905572851178465</v>
+      </c>
+      <c r="F47">
+        <v>-0.05592843673899198</v>
+      </c>
+      <c r="G47">
+        <v>-0.08266988990737187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.005466645704363403</v>
+        <v>-0.01975744262507476</v>
       </c>
       <c r="C48">
-        <v>-0.01477584255991731</v>
+        <v>0.0130911784482846</v>
       </c>
       <c r="D48">
-        <v>0.02211482855406114</v>
+        <v>-0.001932293901917295</v>
       </c>
       <c r="E48">
-        <v>-0.001590671654289126</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.002583720383406555</v>
+      </c>
+      <c r="F48">
+        <v>-0.02023783065196468</v>
+      </c>
+      <c r="G48">
+        <v>-0.09132199130363999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.01031164349331155</v>
+        <v>-0.07554700381317839</v>
       </c>
       <c r="C50">
-        <v>-0.03530688171825221</v>
+        <v>0.07253896230319595</v>
       </c>
       <c r="D50">
-        <v>0.07642526409475389</v>
+        <v>0.002414557986443852</v>
       </c>
       <c r="E50">
-        <v>0.02851583418792732</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.006214703659793712</v>
+      </c>
+      <c r="F50">
+        <v>-0.05613739117648791</v>
+      </c>
+      <c r="G50">
+        <v>-0.09638432770873741</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007992504003218347</v>
+        <v>-0.01494017556525808</v>
       </c>
       <c r="C51">
-        <v>-0.006343619778765907</v>
+        <v>0.037383482901942</v>
       </c>
       <c r="D51">
-        <v>0.02521345533533631</v>
+        <v>-0.01052703520948491</v>
       </c>
       <c r="E51">
-        <v>0.00602114510965554</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01976128292818513</v>
+      </c>
+      <c r="F51">
+        <v>0.02271075831311759</v>
+      </c>
+      <c r="G51">
+        <v>-0.1230136075628873</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.01010704533428892</v>
+        <v>-0.08205085344971121</v>
       </c>
       <c r="C53">
-        <v>-0.02901221388167237</v>
+        <v>0.08572638067190175</v>
       </c>
       <c r="D53">
-        <v>0.1342019847719262</v>
+        <v>0.003546968366584282</v>
       </c>
       <c r="E53">
-        <v>0.02410588800770327</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02466822089101828</v>
+      </c>
+      <c r="F53">
+        <v>-0.06656403781695538</v>
+      </c>
+      <c r="G53">
+        <v>-0.08489427585209297</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.007853729999004253</v>
+        <v>-0.03253362340609355</v>
       </c>
       <c r="C54">
-        <v>-0.04061885158590259</v>
+        <v>0.01844737837704655</v>
       </c>
       <c r="D54">
-        <v>0.004017841069312132</v>
+        <v>0.00156747394682565</v>
       </c>
       <c r="E54">
-        <v>-0.01588758708510404</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01392386112099666</v>
+      </c>
+      <c r="F54">
+        <v>-0.005416153766670066</v>
+      </c>
+      <c r="G54">
+        <v>-0.102730940604796</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.005505933662514418</v>
+        <v>-0.07209078700665593</v>
       </c>
       <c r="C55">
-        <v>-0.01922139188137138</v>
+        <v>0.06891827840130825</v>
       </c>
       <c r="D55">
-        <v>0.1085786302822057</v>
+        <v>0.005085149736757538</v>
       </c>
       <c r="E55">
-        <v>0.008780044416925164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02183201963556824</v>
+      </c>
+      <c r="F55">
+        <v>-0.0636367036240746</v>
+      </c>
+      <c r="G55">
+        <v>-0.06097964073013717</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.011642797076098</v>
+        <v>-0.137856484461754</v>
       </c>
       <c r="C56">
-        <v>-0.05007526675346565</v>
+        <v>0.1081735783033747</v>
       </c>
       <c r="D56">
-        <v>0.1661182879211851</v>
+        <v>0.01275182365028653</v>
       </c>
       <c r="E56">
-        <v>0.0305571850828236</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03143287842591597</v>
+      </c>
+      <c r="F56">
+        <v>-0.08173895576504787</v>
+      </c>
+      <c r="G56">
+        <v>-0.03348767395715496</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02446849993144196</v>
+        <v>-0.006009947193361694</v>
       </c>
       <c r="C57">
-        <v>-0.0005207121595499051</v>
+        <v>0.008153621877231808</v>
       </c>
       <c r="D57">
-        <v>0.04038033192422544</v>
+        <v>-0.02349600017644872</v>
       </c>
       <c r="E57">
-        <v>-0.03933725603908423</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02574707841635126</v>
+      </c>
+      <c r="F57">
+        <v>0.01091151869073231</v>
+      </c>
+      <c r="G57">
+        <v>-0.02972599115561789</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01506551662904033</v>
+        <v>-0.05342916429608699</v>
       </c>
       <c r="C58">
-        <v>-0.03545432740905705</v>
+        <v>0.05228807765818457</v>
       </c>
       <c r="D58">
-        <v>0.1441925532496891</v>
+        <v>-0.024520240935808</v>
       </c>
       <c r="E58">
-        <v>-0.8259673850070239</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9346244504370707</v>
+      </c>
+      <c r="F58">
+        <v>-0.2248550635129715</v>
+      </c>
+      <c r="G58">
+        <v>0.1689384483191841</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.07708198946585988</v>
+        <v>-0.1599950205205662</v>
       </c>
       <c r="C59">
-        <v>-0.2649618493919089</v>
+        <v>-0.2033294294042131</v>
       </c>
       <c r="D59">
-        <v>-0.08814782404469097</v>
+        <v>0.01122059252184751</v>
       </c>
       <c r="E59">
-        <v>0.01908401782300562</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01859496780157928</v>
+      </c>
+      <c r="F59">
+        <v>-0.0003194007527918878</v>
+      </c>
+      <c r="G59">
+        <v>-0.04475777666145071</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.06678932681191464</v>
+        <v>-0.2881889752865193</v>
       </c>
       <c r="C60">
-        <v>-0.1579145549244211</v>
+        <v>0.1057862133634247</v>
       </c>
       <c r="D60">
-        <v>0.1443240922520939</v>
+        <v>-0.01147127644540917</v>
       </c>
       <c r="E60">
-        <v>0.05849890396864744</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.009391714867562692</v>
+      </c>
+      <c r="F60">
+        <v>0.3443152165857418</v>
+      </c>
+      <c r="G60">
+        <v>0.1465156171909773</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002291141249980923</v>
+        <v>-0.03847294719223022</v>
       </c>
       <c r="C61">
-        <v>0.006241371794210843</v>
+        <v>0.06742061598418404</v>
       </c>
       <c r="D61">
-        <v>0.07679116177388719</v>
+        <v>-0.005282368581399246</v>
       </c>
       <c r="E61">
-        <v>0.005591263638778116</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01406570157074638</v>
+      </c>
+      <c r="F61">
+        <v>0.01558592916989364</v>
+      </c>
+      <c r="G61">
+        <v>-0.09114388965332429</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.008249652637531647</v>
+        <v>-0.01561146476231796</v>
       </c>
       <c r="C63">
-        <v>-0.0009201403906774819</v>
+        <v>0.03084232469762569</v>
       </c>
       <c r="D63">
-        <v>0.03002803613176531</v>
+        <v>-0.008500373034683277</v>
       </c>
       <c r="E63">
-        <v>0.01346909064679609</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.001686828434877391</v>
+      </c>
+      <c r="F63">
+        <v>-0.01792869030199333</v>
+      </c>
+      <c r="G63">
+        <v>-0.09387931353505966</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.01085129356881072</v>
+        <v>-0.04797127350508859</v>
       </c>
       <c r="C64">
-        <v>-0.01688788833178013</v>
+        <v>0.0475953063314186</v>
       </c>
       <c r="D64">
-        <v>0.0644382200798327</v>
+        <v>-0.006097462198855393</v>
       </c>
       <c r="E64">
-        <v>0.005928735421604918</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.0001032721598259148</v>
+      </c>
+      <c r="F64">
+        <v>0.006024859482368209</v>
+      </c>
+      <c r="G64">
+        <v>-0.08740311687813376</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01738394192608668</v>
+        <v>-0.07462968139670988</v>
       </c>
       <c r="C65">
-        <v>0.005930643503200756</v>
+        <v>0.05954635118341514</v>
       </c>
       <c r="D65">
-        <v>0.1061732165668708</v>
+        <v>-0.01643506515845379</v>
       </c>
       <c r="E65">
-        <v>0.02305539175528841</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.03322950936589562</v>
+      </c>
+      <c r="F65">
+        <v>0.03157626435435535</v>
+      </c>
+      <c r="G65">
+        <v>-0.03445441519328461</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.0003819006248246938</v>
+        <v>-0.05192000435820323</v>
       </c>
       <c r="C66">
-        <v>0.03381615981821351</v>
+        <v>0.1096651022545269</v>
       </c>
       <c r="D66">
-        <v>0.1358591466386911</v>
+        <v>-0.01153895125338109</v>
       </c>
       <c r="E66">
-        <v>-0.005351254495121572</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.03080758776650768</v>
+      </c>
+      <c r="F66">
+        <v>0.03606119054283669</v>
+      </c>
+      <c r="G66">
+        <v>-0.1030769726965204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.00889536858421538</v>
+        <v>-0.05516069289166999</v>
       </c>
       <c r="C67">
-        <v>-0.04254576945292437</v>
+        <v>0.03523724449006543</v>
       </c>
       <c r="D67">
-        <v>0.07113843606052321</v>
+        <v>0.005947244033786317</v>
       </c>
       <c r="E67">
-        <v>0.009656366687488928</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003511796394659008</v>
+      </c>
+      <c r="F67">
+        <v>-0.01887816836221978</v>
+      </c>
+      <c r="G67">
+        <v>-0.07425609979605285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.0918046367667371</v>
+        <v>-0.1535286193291273</v>
       </c>
       <c r="C68">
-        <v>-0.2508023706249049</v>
+        <v>-0.2691518265933324</v>
       </c>
       <c r="D68">
-        <v>-0.1404586577912688</v>
+        <v>-0.006405726213941179</v>
       </c>
       <c r="E68">
-        <v>-0.02540283208976034</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.0138750805743987</v>
+      </c>
+      <c r="F68">
+        <v>-0.03221869596462483</v>
+      </c>
+      <c r="G68">
+        <v>-0.03513363579097206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003493758802742896</v>
+        <v>-0.08241665118510524</v>
       </c>
       <c r="C69">
-        <v>-0.0294185049166779</v>
+        <v>0.07094702286209144</v>
       </c>
       <c r="D69">
-        <v>0.08266434464523062</v>
+        <v>0.009073721985829923</v>
       </c>
       <c r="E69">
-        <v>0.02444222590040245</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02292357934623042</v>
+      </c>
+      <c r="F69">
+        <v>-0.03779208785701914</v>
+      </c>
+      <c r="G69">
+        <v>-0.09419714384603697</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.0709031795210871</v>
+        <v>-0.1398036402069965</v>
       </c>
       <c r="C71">
-        <v>-0.2123424619213174</v>
+        <v>-0.2275997984164527</v>
       </c>
       <c r="D71">
-        <v>-0.08812164292023024</v>
+        <v>0.002297135044184686</v>
       </c>
       <c r="E71">
-        <v>-0.02650076540505743</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03403404084376221</v>
+      </c>
+      <c r="F71">
+        <v>-0.01919267629675836</v>
+      </c>
+      <c r="G71">
+        <v>-0.07049783280974661</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0002166087982306606</v>
+        <v>-0.08499313642692581</v>
       </c>
       <c r="C72">
-        <v>-0.01839766529891858</v>
+        <v>0.07191694999379221</v>
       </c>
       <c r="D72">
-        <v>0.1088764605327309</v>
+        <v>0.008403034431342481</v>
       </c>
       <c r="E72">
-        <v>0.03862254368093937</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.005554791643009736</v>
+      </c>
+      <c r="F72">
+        <v>0.0388777967829898</v>
+      </c>
+      <c r="G72">
+        <v>-0.08305517277972922</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.07969427768721511</v>
+        <v>-0.3767367601081741</v>
       </c>
       <c r="C73">
-        <v>-0.1618955862436872</v>
+        <v>0.1160593703105219</v>
       </c>
       <c r="D73">
-        <v>0.2634167082788328</v>
+        <v>-0.02030029323063364</v>
       </c>
       <c r="E73">
-        <v>0.02720381116828935</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06154384860031199</v>
+      </c>
+      <c r="F73">
+        <v>0.5792394381646255</v>
+      </c>
+      <c r="G73">
+        <v>0.2647317977210946</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.009820279488722775</v>
+        <v>-0.1052111037218574</v>
       </c>
       <c r="C74">
-        <v>-0.04545457009112055</v>
+        <v>0.1088750558770237</v>
       </c>
       <c r="D74">
-        <v>0.175802830336535</v>
+        <v>0.009481366575429888</v>
       </c>
       <c r="E74">
-        <v>0.01855853731400945</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.006933089975820311</v>
+      </c>
+      <c r="F74">
+        <v>-0.0697397133080529</v>
+      </c>
+      <c r="G74">
+        <v>-0.0762325473668698</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.02769392941510227</v>
+        <v>-0.2489848323228797</v>
       </c>
       <c r="C75">
-        <v>-0.1215618299484102</v>
+        <v>0.1499944330659343</v>
       </c>
       <c r="D75">
-        <v>0.3062795610774858</v>
+        <v>0.03110765130718885</v>
       </c>
       <c r="E75">
-        <v>0.03943821257032945</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05686932580629709</v>
+      </c>
+      <c r="F75">
+        <v>-0.1782761209308966</v>
+      </c>
+      <c r="G75">
+        <v>0.03503413273802822</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.007639729679324553</v>
+        <v>-0.1199241364155491</v>
       </c>
       <c r="C76">
-        <v>-0.0606710742100415</v>
+        <v>0.1095958666912044</v>
       </c>
       <c r="D76">
-        <v>0.2248572677548024</v>
+        <v>0.01877563059956441</v>
       </c>
       <c r="E76">
-        <v>0.05516962235551523</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02986296641336046</v>
+      </c>
+      <c r="F76">
+        <v>-0.1114796362907463</v>
+      </c>
+      <c r="G76">
+        <v>-0.05500895520867806</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01533023683541663</v>
+        <v>-0.06785135958797255</v>
       </c>
       <c r="C77">
-        <v>-0.01050025566362089</v>
+        <v>0.05871090972282579</v>
       </c>
       <c r="D77">
-        <v>0.06799305730790327</v>
+        <v>-0.01103386181887203</v>
       </c>
       <c r="E77">
-        <v>-0.0145581387986592</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04139925332298042</v>
+      </c>
+      <c r="F77">
+        <v>0.01561107846434311</v>
+      </c>
+      <c r="G77">
+        <v>-0.05818354396774916</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.004170676024872469</v>
+        <v>-0.04224641488597884</v>
       </c>
       <c r="C78">
-        <v>0.001266331307588416</v>
+        <v>0.05188913494662849</v>
       </c>
       <c r="D78">
-        <v>0.05948994603845686</v>
+        <v>-0.005521514564223518</v>
       </c>
       <c r="E78">
-        <v>-0.01190969206233088</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02288025703739351</v>
+      </c>
+      <c r="F78">
+        <v>0.03688210758180088</v>
+      </c>
+      <c r="G78">
+        <v>-0.09021668642446955</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01080611162840171</v>
+        <v>-0.04341676744723105</v>
       </c>
       <c r="C80">
-        <v>0.002018795998649806</v>
+        <v>0.07573047031813107</v>
       </c>
       <c r="D80">
-        <v>0.1678865283855715</v>
+        <v>-0.01083175396839992</v>
       </c>
       <c r="E80">
-        <v>0.3905396619602241</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03438963324612827</v>
+      </c>
+      <c r="F80">
+        <v>0.008148941650169271</v>
+      </c>
+      <c r="G80">
+        <v>-0.264849019038725</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.01675147318054148</v>
+        <v>-0.1381320066391369</v>
       </c>
       <c r="C81">
-        <v>-0.06978816454320599</v>
+        <v>0.09519580247289468</v>
       </c>
       <c r="D81">
-        <v>0.1824951786363078</v>
+        <v>0.01529453370132427</v>
       </c>
       <c r="E81">
-        <v>0.04263302330470265</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03454031162956239</v>
+      </c>
+      <c r="F81">
+        <v>-0.1316457638080094</v>
+      </c>
+      <c r="G81">
+        <v>-0.02068367694384505</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1299256081285918</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07493788273858328</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.008752096434144364</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.09113712382950472</v>
+      </c>
+      <c r="F82">
+        <v>-0.0477362686687865</v>
+      </c>
+      <c r="G82">
+        <v>-0.05254674525196557</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.009191164461471606</v>
+        <v>-0.03690902092967838</v>
       </c>
       <c r="C83">
-        <v>-0.01516524135821513</v>
+        <v>0.03084612638930522</v>
       </c>
       <c r="D83">
-        <v>0.04000895528246253</v>
+        <v>-0.006008434325730548</v>
       </c>
       <c r="E83">
-        <v>-0.01798203638017365</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02895831977229539</v>
+      </c>
+      <c r="F83">
+        <v>0.03218932050701139</v>
+      </c>
+      <c r="G83">
+        <v>-0.0632213172683635</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.02910177867750094</v>
+        <v>-0.2131400069107273</v>
       </c>
       <c r="C85">
-        <v>-0.08332882693597779</v>
+        <v>0.1436264204158138</v>
       </c>
       <c r="D85">
-        <v>0.2675266519405517</v>
+        <v>0.01812201587903231</v>
       </c>
       <c r="E85">
-        <v>0.04482898367621401</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09560585267164536</v>
+      </c>
+      <c r="F85">
+        <v>-0.1330774153962812</v>
+      </c>
+      <c r="G85">
+        <v>0.09538734191413463</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01016691638775758</v>
+        <v>-0.01346658446143879</v>
       </c>
       <c r="C86">
-        <v>-0.01305868496030641</v>
+        <v>0.02961660833517975</v>
       </c>
       <c r="D86">
-        <v>0.06342626819987372</v>
+        <v>-0.01241764395032717</v>
       </c>
       <c r="E86">
-        <v>-0.02996746703284426</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04943834142910315</v>
+      </c>
+      <c r="F86">
+        <v>0.03125845383748003</v>
+      </c>
+      <c r="G86">
+        <v>-0.1855919880022449</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.006143441883530861</v>
+        <v>-0.02251528071857292</v>
       </c>
       <c r="C87">
-        <v>0.01078551704300799</v>
+        <v>0.02415160947115871</v>
       </c>
       <c r="D87">
-        <v>0.05448483611438528</v>
+        <v>-0.01182155381048537</v>
       </c>
       <c r="E87">
-        <v>-0.03143064921558408</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08672389203622519</v>
+      </c>
+      <c r="F87">
+        <v>0.01336905712798424</v>
+      </c>
+      <c r="G87">
+        <v>-0.1171788206977106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.03198894302563487</v>
+        <v>-0.09316365338630257</v>
       </c>
       <c r="C88">
-        <v>-0.02576022863281703</v>
+        <v>0.06734738174278727</v>
       </c>
       <c r="D88">
-        <v>0.05822454556431893</v>
+        <v>-0.02208109100893401</v>
       </c>
       <c r="E88">
-        <v>0.002491358418560334</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.007796229681608713</v>
+      </c>
+      <c r="F88">
+        <v>-0.02009418797149832</v>
+      </c>
+      <c r="G88">
+        <v>-0.08300276629139251</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1353583267458418</v>
+        <v>-0.2318817623426019</v>
       </c>
       <c r="C89">
-        <v>-0.3996112008264915</v>
+        <v>-0.367190771504612</v>
       </c>
       <c r="D89">
-        <v>-0.1611222270176814</v>
+        <v>-0.0005044142159457019</v>
       </c>
       <c r="E89">
-        <v>0.03391656268613914</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.0126778606334002</v>
+      </c>
+      <c r="F89">
+        <v>-0.02493585371558425</v>
+      </c>
+      <c r="G89">
+        <v>-0.06818411752437134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1074636118501087</v>
+        <v>-0.2071684172714409</v>
       </c>
       <c r="C90">
-        <v>-0.3259000041925452</v>
+        <v>-0.3198343215280176</v>
       </c>
       <c r="D90">
-        <v>-0.1565557503658705</v>
+        <v>0.004240354096711176</v>
       </c>
       <c r="E90">
-        <v>-0.004191188801163506</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.002770407183540385</v>
+      </c>
+      <c r="F90">
+        <v>-0.05383983009545888</v>
+      </c>
+      <c r="G90">
+        <v>-0.03737025267195834</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.02163604570674414</v>
+        <v>-0.1867277542461816</v>
       </c>
       <c r="C91">
-        <v>-0.1046843578914878</v>
+        <v>0.1381799214629666</v>
       </c>
       <c r="D91">
-        <v>0.2290618801266952</v>
+        <v>0.02236068367904355</v>
       </c>
       <c r="E91">
-        <v>0.04607628232434598</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05950879365374297</v>
+      </c>
+      <c r="F91">
+        <v>-0.1448299201337174</v>
+      </c>
+      <c r="G91">
+        <v>-0.02237243252380682</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.0713975556989899</v>
+        <v>-0.199161964387695</v>
       </c>
       <c r="C92">
-        <v>-0.3137810367278959</v>
+        <v>-0.2573792444776102</v>
       </c>
       <c r="D92">
-        <v>-0.04866218897432709</v>
+        <v>0.03789755871543683</v>
       </c>
       <c r="E92">
-        <v>-0.0512960446836314</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.03799861828853893</v>
+      </c>
+      <c r="F92">
+        <v>-0.05937136611226988</v>
+      </c>
+      <c r="G92">
+        <v>-0.1297780813281988</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1072972153663463</v>
+        <v>-0.2318445377482431</v>
       </c>
       <c r="C93">
-        <v>-0.3416776215070127</v>
+        <v>-0.3155067233230259</v>
       </c>
       <c r="D93">
-        <v>-0.1225206141391431</v>
+        <v>0.01111346943116572</v>
       </c>
       <c r="E93">
-        <v>-0.02103659069561383</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.009093895371939765</v>
+      </c>
+      <c r="F93">
+        <v>-0.0408088945177453</v>
+      </c>
+      <c r="G93">
+        <v>-0.05009706668331026</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.05806394174171538</v>
+        <v>-0.3162632862092535</v>
       </c>
       <c r="C94">
-        <v>-0.1491160421603249</v>
+        <v>0.1743748346172419</v>
       </c>
       <c r="D94">
-        <v>0.2789531289798178</v>
+        <v>0.01749058761549737</v>
       </c>
       <c r="E94">
-        <v>0.09658465037871093</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1731296791937608</v>
+      </c>
+      <c r="F94">
+        <v>-0.4807132571708852</v>
+      </c>
+      <c r="G94">
+        <v>0.4066801038587463</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.00193519932362213</v>
+        <v>-0.1016372916727342</v>
       </c>
       <c r="C95">
-        <v>-0.02214606041381305</v>
+        <v>0.08668120515152238</v>
       </c>
       <c r="D95">
-        <v>0.1188762868687047</v>
+        <v>0.01108852579099557</v>
       </c>
       <c r="E95">
-        <v>-0.134096733112834</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06922278291673836</v>
+      </c>
+      <c r="F95">
+        <v>0.200153597283891</v>
+      </c>
+      <c r="G95">
+        <v>0.09367424147417226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.0328944380510051</v>
+        <v>-0.1973634842349035</v>
       </c>
       <c r="C98">
-        <v>-0.1371202767836598</v>
+        <v>0.04514419057406448</v>
       </c>
       <c r="D98">
-        <v>0.1571413669894871</v>
+        <v>0.01339038904070537</v>
       </c>
       <c r="E98">
-        <v>-0.03731954380866397</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06486427264332971</v>
+      </c>
+      <c r="F98">
+        <v>0.240714211299652</v>
+      </c>
+      <c r="G98">
+        <v>0.003653114271685566</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +2994,62 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01043957331592056</v>
+        <v>-0.009571230405528836</v>
       </c>
       <c r="C101">
-        <v>-0.01273914808533051</v>
+        <v>0.02350365824496597</v>
       </c>
       <c r="D101">
-        <v>0.02267221393297757</v>
+        <v>-0.008854550123714547</v>
       </c>
       <c r="E101">
-        <v>-0.003252433492468496</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.001674893836776611</v>
+      </c>
+      <c r="F101">
+        <v>-0.01816981843398762</v>
+      </c>
+      <c r="G101">
+        <v>-0.09396527321361826</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.0213446738387596</v>
+        <v>-0.1168067792754855</v>
       </c>
       <c r="C102">
-        <v>-0.03905726618466918</v>
+        <v>0.08241365103615923</v>
       </c>
       <c r="D102">
-        <v>0.1297330033903495</v>
+        <v>-0.0005322764205437621</v>
       </c>
       <c r="E102">
-        <v>0.02407819267411034</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.0346790267586398</v>
+      </c>
+      <c r="F102">
+        <v>-0.04356766140999584</v>
+      </c>
+      <c r="G102">
+        <v>-0.006819070123818624</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,22 +3063,34 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.944136497764354</v>
+        <v>-0.02110756859586888</v>
       </c>
       <c r="C104">
-        <v>0.299022044380382</v>
+        <v>-0.02933953270505523</v>
       </c>
       <c r="D104">
-        <v>-0.03913148042209551</v>
+        <v>-0.9877284709539945</v>
       </c>
       <c r="E104">
-        <v>0.02790353241980556</v>
+        <v>0.04789506791318721</v>
+      </c>
+      <c r="F104">
+        <v>-0.03602319921391334</v>
+      </c>
+      <c r="G104">
+        <v>0.03509326188538059</v>
       </c>
     </row>
   </sheetData>
